--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rspo3-Lgr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rspo3-Lgr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Rspo3</t>
+  </si>
+  <si>
+    <t>Lgr4</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Rspo3</t>
-  </si>
-  <si>
-    <t>Lgr4</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.003420333333333333</v>
+        <v>0.06762866666666667</v>
       </c>
       <c r="H2">
-        <v>0.010261</v>
+        <v>0.202886</v>
       </c>
       <c r="I2">
-        <v>0.0006787744882400219</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="J2">
-        <v>0.0006824388225951697</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.574348666666667</v>
+        <v>0.5779736666666667</v>
       </c>
       <c r="N2">
-        <v>4.723046</v>
+        <v>1.733921</v>
       </c>
       <c r="O2">
-        <v>0.0919647296207302</v>
+        <v>0.04835019606981441</v>
       </c>
       <c r="P2">
-        <v>0.107609035279699</v>
+        <v>0.05356228267519154</v>
       </c>
       <c r="Q2">
-        <v>0.005384797222888888</v>
+        <v>0.03908758844511111</v>
       </c>
       <c r="R2">
-        <v>0.048463175006</v>
+        <v>0.351788296006</v>
       </c>
       <c r="S2">
-        <v>6.242331228444312E-05</v>
+        <v>0.0006486369923623752</v>
       </c>
       <c r="T2">
-        <v>7.343658333687984E-05</v>
+        <v>0.0007185591944308523</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.003420333333333333</v>
+        <v>0.06762866666666667</v>
       </c>
       <c r="H3">
-        <v>0.010261</v>
+        <v>0.202886</v>
       </c>
       <c r="I3">
-        <v>0.0006787744882400219</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="J3">
-        <v>0.0006824388225951697</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +626,22 @@
         <v>23.373048</v>
       </c>
       <c r="O3">
-        <v>0.4551080043963893</v>
+        <v>0.6517548686181108</v>
       </c>
       <c r="P3">
-        <v>0.532527345028208</v>
+        <v>0.7220131735856595</v>
       </c>
       <c r="Q3">
-        <v>0.02664787172533333</v>
+        <v>0.5268960240586666</v>
       </c>
       <c r="R3">
-        <v>0.239830845528</v>
+        <v>4.742064216528</v>
       </c>
       <c r="S3">
-        <v>0.0003089157027780968</v>
+        <v>0.00874354919114621</v>
       </c>
       <c r="T3">
-        <v>0.0003634173343407819</v>
+        <v>0.009686092124308801</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +655,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,46 +664,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.003420333333333333</v>
+        <v>0.06762866666666667</v>
       </c>
       <c r="H4">
-        <v>0.010261</v>
+        <v>0.202886</v>
       </c>
       <c r="I4">
-        <v>0.0006787744882400219</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="J4">
-        <v>0.0006824388225951697</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>7.4663515</v>
+        <v>0.05015166666666667</v>
       </c>
       <c r="N4">
-        <v>14.932703</v>
+        <v>0.150455</v>
       </c>
       <c r="O4">
-        <v>0.436142902451617</v>
+        <v>0.004195421100317676</v>
       </c>
       <c r="P4">
-        <v>0.3402240342245802</v>
+        <v>0.004647681895481942</v>
       </c>
       <c r="Q4">
-        <v>0.02553741091383333</v>
+        <v>0.003391690347777778</v>
       </c>
       <c r="R4">
-        <v>0.153224465483</v>
+        <v>0.03052521313</v>
       </c>
       <c r="S4">
-        <v>0.0002960426754111141</v>
+        <v>5.628323244593102E-05</v>
       </c>
       <c r="T4">
-        <v>0.0002321820893348012</v>
+        <v>6.235048978476752E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +717,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,51 +726,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.003420333333333333</v>
+        <v>0.06762866666666667</v>
       </c>
       <c r="H5">
-        <v>0.010261</v>
+        <v>0.202886</v>
       </c>
       <c r="I5">
-        <v>0.0006787744882400219</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="J5">
-        <v>0.0006824388225951697</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2873323333333333</v>
+        <v>3.489664</v>
       </c>
       <c r="N5">
-        <v>0.8619969999999999</v>
+        <v>6.979328</v>
       </c>
       <c r="O5">
-        <v>0.01678436353126363</v>
+        <v>0.2919266886169084</v>
       </c>
       <c r="P5">
-        <v>0.01963958546751284</v>
+        <v>0.215597330685123</v>
       </c>
       <c r="Q5">
-        <v>0.0009827723574444443</v>
+        <v>0.2360013234346667</v>
       </c>
       <c r="R5">
-        <v>0.008844951216999998</v>
+        <v>1.416007940608</v>
       </c>
       <c r="S5">
-        <v>1.139279776636796E-05</v>
+        <v>0.003916311921907495</v>
       </c>
       <c r="T5">
-        <v>1.340281558270667E-05</v>
+        <v>0.002892323413436189</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,55 +779,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>4.954393</v>
+        <v>0.06762866666666667</v>
       </c>
       <c r="H6">
-        <v>14.863179</v>
+        <v>0.202886</v>
       </c>
       <c r="I6">
-        <v>0.9832128174003353</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="J6">
-        <v>0.9885206487458582</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.574348666666667</v>
+        <v>0.0451</v>
       </c>
       <c r="N6">
-        <v>4.723046</v>
+        <v>0.1353</v>
       </c>
       <c r="O6">
-        <v>0.0919647296207302</v>
+        <v>0.003772825594848836</v>
       </c>
       <c r="P6">
-        <v>0.107609035279699</v>
+        <v>0.004179531158543795</v>
       </c>
       <c r="Q6">
-        <v>7.799942013692665</v>
+        <v>0.003050052866666667</v>
       </c>
       <c r="R6">
-        <v>70.199478123234</v>
+        <v>0.0274504758</v>
       </c>
       <c r="S6">
-        <v>0.09042090091185821</v>
+        <v>5.061394669458952E-05</v>
       </c>
       <c r="T6">
-        <v>0.106373753365604</v>
+        <v>5.607006259598581E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +841,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +856,10 @@
         <v>14.863179</v>
       </c>
       <c r="I7">
-        <v>0.9832128174003353</v>
+        <v>0.9827953701592058</v>
       </c>
       <c r="J7">
-        <v>0.9885206487458582</v>
+        <v>0.9827953701592059</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.791016</v>
+        <v>0.5779736666666667</v>
       </c>
       <c r="N7">
-        <v>23.373048</v>
+        <v>1.733921</v>
       </c>
       <c r="O7">
-        <v>0.4551080043963893</v>
+        <v>0.04835019606981441</v>
       </c>
       <c r="P7">
-        <v>0.532527345028208</v>
+        <v>0.05356228267519154</v>
       </c>
       <c r="Q7">
-        <v>38.599755133288</v>
+        <v>2.863508688317667</v>
       </c>
       <c r="R7">
-        <v>347.397796199592</v>
+        <v>25.771578194859</v>
       </c>
       <c r="S7">
-        <v>0.4474680232240181</v>
+        <v>0.04751834884370343</v>
       </c>
       <c r="T7">
-        <v>0.5264142765821936</v>
+        <v>0.05264076342833689</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +903,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,40 +918,40 @@
         <v>14.863179</v>
       </c>
       <c r="I8">
-        <v>0.9832128174003353</v>
+        <v>0.9827953701592058</v>
       </c>
       <c r="J8">
-        <v>0.9885206487458582</v>
+        <v>0.9827953701592059</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.4663515</v>
+        <v>7.791016</v>
       </c>
       <c r="N8">
-        <v>14.932703</v>
+        <v>23.373048</v>
       </c>
       <c r="O8">
-        <v>0.436142902451617</v>
+        <v>0.6517548686181108</v>
       </c>
       <c r="P8">
-        <v>0.3402240342245802</v>
+        <v>0.7220131735856595</v>
       </c>
       <c r="Q8">
-        <v>36.9912396071395</v>
+        <v>38.599755133288</v>
       </c>
       <c r="R8">
-        <v>221.947437642837</v>
+        <v>347.397796199592</v>
       </c>
       <c r="S8">
-        <v>0.428821291908614</v>
+        <v>0.6405416673566008</v>
       </c>
       <c r="T8">
-        <v>0.3363184830306151</v>
+        <v>0.7095912041939413</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,45 +980,45 @@
         <v>14.863179</v>
       </c>
       <c r="I9">
-        <v>0.9832128174003353</v>
+        <v>0.9827953701592058</v>
       </c>
       <c r="J9">
-        <v>0.9885206487458582</v>
+        <v>0.9827953701592059</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.2873323333333333</v>
+        <v>0.05015166666666667</v>
       </c>
       <c r="N9">
-        <v>0.8619969999999999</v>
+        <v>0.150455</v>
       </c>
       <c r="O9">
-        <v>0.01678436353126363</v>
+        <v>0.004195421100317676</v>
       </c>
       <c r="P9">
-        <v>0.01963958546751284</v>
+        <v>0.004647681895481942</v>
       </c>
       <c r="Q9">
-        <v>1.423557300940333</v>
+        <v>0.2484710662716667</v>
       </c>
       <c r="R9">
-        <v>12.812015708463</v>
+        <v>2.236239596445</v>
       </c>
       <c r="S9">
-        <v>0.01650260135584515</v>
+        <v>0.004123240433260454</v>
       </c>
       <c r="T9">
-        <v>0.01941413576744552</v>
+        <v>0.004567720248852415</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1024,60 +1027,60 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.08117000000000001</v>
+        <v>4.954393</v>
       </c>
       <c r="H10">
-        <v>0.16234</v>
+        <v>14.863179</v>
       </c>
       <c r="I10">
-        <v>0.01610840811142459</v>
+        <v>0.9827953701592058</v>
       </c>
       <c r="J10">
-        <v>0.01079691243154662</v>
+        <v>0.9827953701592059</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.574348666666667</v>
+        <v>3.489664</v>
       </c>
       <c r="N10">
-        <v>4.723046</v>
+        <v>6.979328</v>
       </c>
       <c r="O10">
-        <v>0.0919647296207302</v>
+        <v>0.2919266886169084</v>
       </c>
       <c r="P10">
-        <v>0.107609035279699</v>
+        <v>0.215597330685123</v>
       </c>
       <c r="Q10">
-        <v>0.1277898812733334</v>
+        <v>17.289166893952</v>
       </c>
       <c r="R10">
-        <v>0.7667392876400001</v>
+        <v>103.735001363712</v>
       </c>
       <c r="S10">
-        <v>0.00148140539658754</v>
+        <v>0.2869041979986057</v>
       </c>
       <c r="T10">
-        <v>0.00116184533075812</v>
+        <v>0.2118880584160222</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1086,55 +1089,55 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.08117000000000001</v>
+        <v>4.954393</v>
       </c>
       <c r="H11">
-        <v>0.16234</v>
+        <v>14.863179</v>
       </c>
       <c r="I11">
-        <v>0.01610840811142459</v>
+        <v>0.9827953701592058</v>
       </c>
       <c r="J11">
-        <v>0.01079691243154662</v>
+        <v>0.9827953701592059</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>7.791016</v>
+        <v>0.0451</v>
       </c>
       <c r="N11">
-        <v>23.373048</v>
+        <v>0.1353</v>
       </c>
       <c r="O11">
-        <v>0.4551080043963893</v>
+        <v>0.003772825594848836</v>
       </c>
       <c r="P11">
-        <v>0.532527345028208</v>
+        <v>0.004179531158543795</v>
       </c>
       <c r="Q11">
-        <v>0.6323967687200001</v>
+        <v>0.2234431243</v>
       </c>
       <c r="R11">
-        <v>3.79438061232</v>
+        <v>2.0109881187</v>
       </c>
       <c r="S11">
-        <v>0.007331065469593056</v>
+        <v>0.003707915527035587</v>
       </c>
       <c r="T11">
-        <v>0.005749651111673574</v>
+        <v>0.004107623872052984</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,55 +1151,55 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.08117000000000001</v>
+        <v>0.019102</v>
       </c>
       <c r="H12">
-        <v>0.16234</v>
+        <v>0.057306</v>
       </c>
       <c r="I12">
-        <v>0.01610840811142459</v>
+        <v>0.003789234556237495</v>
       </c>
       <c r="J12">
-        <v>0.01079691243154662</v>
+        <v>0.003789234556237496</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.4663515</v>
+        <v>0.5779736666666667</v>
       </c>
       <c r="N12">
-        <v>14.932703</v>
+        <v>1.733921</v>
       </c>
       <c r="O12">
-        <v>0.436142902451617</v>
+        <v>0.04835019606981441</v>
       </c>
       <c r="P12">
-        <v>0.3402240342245802</v>
+        <v>0.05356228267519154</v>
       </c>
       <c r="Q12">
-        <v>0.6060437512550001</v>
+        <v>0.01104045298066667</v>
       </c>
       <c r="R12">
-        <v>2.42417500502</v>
+        <v>0.09936407682600001</v>
       </c>
       <c r="S12">
-        <v>0.007025567867591892</v>
+        <v>0.0001832102337485991</v>
       </c>
       <c r="T12">
-        <v>0.003673369104630312</v>
+        <v>0.0002029600524237967</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,55 +1213,241 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.019102</v>
+      </c>
+      <c r="H13">
+        <v>0.057306</v>
+      </c>
+      <c r="I13">
+        <v>0.003789234556237495</v>
+      </c>
+      <c r="J13">
+        <v>0.003789234556237496</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>7.791016</v>
+      </c>
+      <c r="N13">
+        <v>23.373048</v>
+      </c>
+      <c r="O13">
+        <v>0.6517548686181108</v>
+      </c>
+      <c r="P13">
+        <v>0.7220131735856595</v>
+      </c>
+      <c r="Q13">
+        <v>0.148823987632</v>
+      </c>
+      <c r="R13">
+        <v>1.339415888688</v>
+      </c>
+      <c r="S13">
+        <v>0.002469652070363774</v>
+      </c>
+      <c r="T13">
+        <v>0.002735877267409482</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.08117000000000001</v>
-      </c>
-      <c r="H13">
-        <v>0.16234</v>
-      </c>
-      <c r="I13">
-        <v>0.01610840811142459</v>
-      </c>
-      <c r="J13">
-        <v>0.01079691243154662</v>
-      </c>
-      <c r="K13">
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.019102</v>
+      </c>
+      <c r="H14">
+        <v>0.057306</v>
+      </c>
+      <c r="I14">
+        <v>0.003789234556237495</v>
+      </c>
+      <c r="J14">
+        <v>0.003789234556237496</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.05015166666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.150455</v>
+      </c>
+      <c r="O14">
+        <v>0.004195421100317676</v>
+      </c>
+      <c r="P14">
+        <v>0.004647681895481942</v>
+      </c>
+      <c r="Q14">
+        <v>0.0009579971366666668</v>
+      </c>
+      <c r="R14">
+        <v>0.008621974230000001</v>
+      </c>
+      <c r="S14">
+        <v>1.589743461129167E-05</v>
+      </c>
+      <c r="T14">
+        <v>1.761115684475956E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.019102</v>
+      </c>
+      <c r="H15">
+        <v>0.057306</v>
+      </c>
+      <c r="I15">
+        <v>0.003789234556237495</v>
+      </c>
+      <c r="J15">
+        <v>0.003789234556237496</v>
+      </c>
+      <c r="K15">
         <v>2</v>
       </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>0.2873323333333333</v>
-      </c>
-      <c r="N13">
-        <v>0.8619969999999999</v>
-      </c>
-      <c r="O13">
-        <v>0.01678436353126363</v>
-      </c>
-      <c r="P13">
-        <v>0.01963958546751284</v>
-      </c>
-      <c r="Q13">
-        <v>0.02332276549666666</v>
-      </c>
-      <c r="R13">
-        <v>0.13993659298</v>
-      </c>
-      <c r="S13">
-        <v>0.0002703693776521062</v>
-      </c>
-      <c r="T13">
-        <v>0.0002120468844846117</v>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.489664</v>
+      </c>
+      <c r="N15">
+        <v>6.979328</v>
+      </c>
+      <c r="O15">
+        <v>0.2919266886169084</v>
+      </c>
+      <c r="P15">
+        <v>0.215597330685123</v>
+      </c>
+      <c r="Q15">
+        <v>0.066659561728</v>
+      </c>
+      <c r="R15">
+        <v>0.399957370368</v>
+      </c>
+      <c r="S15">
+        <v>0.001106178696395172</v>
+      </c>
+      <c r="T15">
+        <v>0.0008169488556646308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.019102</v>
+      </c>
+      <c r="H16">
+        <v>0.057306</v>
+      </c>
+      <c r="I16">
+        <v>0.003789234556237495</v>
+      </c>
+      <c r="J16">
+        <v>0.003789234556237496</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.0451</v>
+      </c>
+      <c r="N16">
+        <v>0.1353</v>
+      </c>
+      <c r="O16">
+        <v>0.003772825594848836</v>
+      </c>
+      <c r="P16">
+        <v>0.004179531158543795</v>
+      </c>
+      <c r="Q16">
+        <v>0.0008615002</v>
+      </c>
+      <c r="R16">
+        <v>0.007753501800000001</v>
+      </c>
+      <c r="S16">
+        <v>1.429612111865849E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.583722389482548E-05</v>
       </c>
     </row>
   </sheetData>
